--- a/double_dabble/performance_test.xlsx
+++ b/double_dabble/performance_test.xlsx
@@ -421,7 +421,7 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="L35" sqref="L35"/>
+      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -516,6 +516,9 @@
       <c r="K3">
         <v>0</v>
       </c>
+      <c r="L3">
+        <v>500</v>
+      </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4">
@@ -557,6 +560,9 @@
       <c r="K4">
         <v>0</v>
       </c>
+      <c r="L4">
+        <v>500</v>
+      </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5">
@@ -597,6 +603,9 @@
       </c>
       <c r="K5">
         <v>0</v>
+      </c>
+      <c r="L5">
+        <v>500</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -639,6 +648,9 @@
       <c r="K6">
         <v>4</v>
       </c>
+      <c r="L6">
+        <v>500</v>
+      </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7">
@@ -680,6 +692,9 @@
       <c r="K7">
         <v>5</v>
       </c>
+      <c r="L7">
+        <v>483</v>
+      </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8">
@@ -721,6 +736,9 @@
       <c r="K8">
         <v>15</v>
       </c>
+      <c r="L8">
+        <v>174</v>
+      </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9">
@@ -762,6 +780,9 @@
       <c r="K9">
         <v>23</v>
       </c>
+      <c r="L9">
+        <v>126</v>
+      </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10">
@@ -802,6 +823,9 @@
       </c>
       <c r="K10">
         <v>25</v>
+      </c>
+      <c r="L10">
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:12">
